--- a/autoast/Cariboo_replacement_1_job.xlsx
+++ b/autoast/Cariboo_replacement_1_job.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="M2" s="11" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>Queued</t>
         </is>
       </c>
       <c r="N2" s="6" t="n"/>

--- a/autoast/Cariboo_replacement_1_job.xlsx
+++ b/autoast/Cariboo_replacement_1_job.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="M2" s="11" t="inlineStr">
         <is>
-          <t>Queued</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="N2" s="6" t="n"/>

--- a/autoast/Cariboo_replacement_1_job.xlsx
+++ b/autoast/Cariboo_replacement_1_job.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="M2" s="11" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>COMPLETE</t>
         </is>
       </c>
       <c r="N2" s="6" t="n"/>
